--- a/AI_algos/genetic_algo/result.xlsx
+++ b/AI_algos/genetic_algo/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>134649.3931122942</v>
+        <v>1966832.610499801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2002054.227908918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1956957.440764731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1932887.690606483</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1897242.706972847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1927992.061781852</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1923661.863450965</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1950788.159433899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1941731.939415419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1987167.186468046</v>
       </c>
     </row>
   </sheetData>
